--- a/data/trans_dic/P23_DUKE_AF_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AF_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social afectivo bajo</t>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>69,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>79,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>73,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70,61%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>72,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 28,62</t>
+          <t>71,99; 86,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 29,91</t>
+          <t>67,02; 82,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 33,74</t>
+          <t>61,2; 78,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 21,47</t>
+          <t>71,48; 87,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 25,54</t>
+          <t>60,11; 74,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 39,08</t>
+          <t>59,52; 73,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 22,54</t>
+          <t>64,4; 77,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 25,78</t>
+          <t>59,62; 73,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 31,99</t>
+          <t>68,25; 78,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65,14; 76,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>64,76; 75,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>67,56; 78,79</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>62,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>63,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>68,27%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63,44%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 32,82</t>
+          <t>54,94; 72,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 27,21</t>
+          <t>53,04; 72,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 18,27</t>
+          <t>53,58; 72,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 27,29</t>
+          <t>51,96; 70,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 25,02</t>
+          <t>64,24; 78,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 23,78</t>
+          <t>66,2; 82,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 26,41</t>
+          <t>58,25; 74,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 23,52</t>
+          <t>56,12; 72,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,09; 19,19</t>
+          <t>62,75; 74,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>62,99; 75,07</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59,0; 71,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56,43; 69,15</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>72,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>60,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74,6%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78,56%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>85,89%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 23,53</t>
+          <t>20,78; 73,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 25,1</t>
+          <t>49,04; 90,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 49,38</t>
+          <t>63,17; 97,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 37,79</t>
+          <t>73,45; 98,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 29,29</t>
+          <t>54,21; 85,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 32,52</t>
+          <t>59,78; 90,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 25,33</t>
+          <t>56,02; 87,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 22,3</t>
+          <t>62,05; 91,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 36,92</t>
+          <t>35,15; 74,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>61,21; 85,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>66,37; 89,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75,79; 93,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>68,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>67,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>70,69%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 24,43</t>
+          <t>62,01; 75,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 24,83</t>
+          <t>63,18; 75,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 25,55</t>
+          <t>62,48; 75,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,11</t>
+          <t>67,17; 79,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,7</t>
+          <t>64,71; 74,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 30,6</t>
+          <t>66,51; 76,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 22,21</t>
+          <t>64,15; 73,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,31</t>
+          <t>62,08; 72,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 24,45</t>
+          <t>65,23; 73,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66,88; 74,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>65,36; 73,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 74,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>322117</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>240303</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>245851</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>376939</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>304413</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>259390</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>272778</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>355430</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>626530</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>499693</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>518629</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>732369</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>290807; 347823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>214540; 265032</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>215234; 274714</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>339929; 414400</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>271144; 334748</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>229925; 283307</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>246503; 297628</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>315368; 389129</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>583554; 668185</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>460135; 536905</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>475667; 553353</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>678608; 791411</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>206788</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>177113</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>189498</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>237936</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>292671</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>240461</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>208908</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>248790</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>499459</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>417574</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>398406</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>486727</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>177776; 234847</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>150226; 205037</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>159159; 214109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>198638; 268109</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>262099; 320981</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>211232; 262853</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>183731; 233725</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>216022; 278152</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>459060; 542464</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>379416; 452167</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>361315; 436624</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>432934; 530552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50811</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56105</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>61049</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>102906</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63502</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55284</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55039</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84887</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>114313</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>111389</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>116088</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>187793</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21150; 74952</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38083; 70116</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45337; 69709</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82767; 110728</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47915; 75472</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42828; 64925</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42573; 66131</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65751; 96581</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66837; 141373</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>91392; 127714</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>98069; 131760</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>165718; 204280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>468.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>579715</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>473521</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>496398</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>717781</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>660586</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>555135</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>536725</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>689107</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1240301</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1028656</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1033123</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1406889</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>514269; 624056</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>430239; 513122</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>450121; 543628</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>651866; 775891</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>613096; 704726</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>516795; 590497</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>496634; 572162</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>633128; 740362</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1159085; 1304317</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>975069; 1080964</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>976850; 1091498</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1328491; 1483764</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
